--- a/ToDo-Planung_Alyabroudy-Aldera.xlsx
+++ b/ToDo-Planung_Alyabroudy-Aldera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammad.alyabroudy\source\repos\BookShoppingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFA282-A86D-4552-A5AD-C5A6BF78789C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FAFC7-5D79-4B58-AB54-2C162C090E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AF173FA-4AC5-4E2A-98E6-1311F0B6D131}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>#Id</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>#80</t>
-  </si>
-  <si>
-    <t>warenkorb controller</t>
-  </si>
-  <si>
-    <t>#90</t>
   </si>
   <si>
     <t>Kauf controller</t>
@@ -590,7 +584,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -669,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -699,9 +693,11 @@
         <v>30</v>
       </c>
       <c r="F5" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -718,9 +714,11 @@
         <v>90</v>
       </c>
       <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -737,9 +735,11 @@
         <v>90</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -756,9 +756,11 @@
         <v>30</v>
       </c>
       <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -775,9 +777,11 @@
         <v>30</v>
       </c>
       <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -791,30 +795,17 @@
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -992,15 +983,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B8E5EA213BE68940AE1179C133B25518" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="da0c1eae53a8b3d36ced0909b86c8904">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2555fed0-ea47-41f0-a083-9d8241b49e56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864a402d4ce79f38ff6da363f2f53199" ns2:_="">
     <xsd:import namespace="2555fed0-ea47-41f0-a083-9d8241b49e56"/>
@@ -1178,6 +1160,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A48405-2C1B-401F-8245-98D10AB601AA}">
   <ds:schemaRefs>
@@ -1188,14 +1179,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73DC9DB-8226-4C7B-970F-A89D19514D5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1211,4 +1194,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>